--- a/type_hint/_cau3.xlsx
+++ b/type_hint/_cau3.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -419,13 +419,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -479,10 +479,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
